--- a/sprint_backlogs/Sprint 6 backlog.xlsx
+++ b/sprint_backlogs/Sprint 6 backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\BI\6th Semester\Software Engineering\Project\Ko7f\sprint_backlogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>User story</t>
   </si>
@@ -51,12 +51,93 @@
   </si>
   <si>
     <t>Mohamed Samer</t>
+  </si>
+  <si>
+    <t>Amr Mohamed</t>
+  </si>
+  <si>
+    <t>Seif Ashraf</t>
+  </si>
+  <si>
+    <t>Amr Hesham</t>
+  </si>
+  <si>
+    <t>Mohameed Hefnawy</t>
+  </si>
+  <si>
+    <t>Omar Mohamed</t>
+  </si>
+  <si>
+    <t>Yaseen</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Omar Khaled</t>
+  </si>
+  <si>
+    <t>As a visitor I should be able to create an account</t>
+  </si>
+  <si>
+    <t>As an user I should be able to log in</t>
+  </si>
+  <si>
+    <t>As an user I should be able to update my account</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to delete any account</t>
+  </si>
+  <si>
+    <t>As an user I shoud be able to delete my account</t>
+  </si>
+  <si>
+    <t>As an user I should be able to view my account</t>
+  </si>
+  <si>
+    <t>As a user/visitor I should be able to rate events</t>
+  </si>
+  <si>
+    <t>As a user/visitor I should be able to reply to a FAQ</t>
+  </si>
+  <si>
+    <t>As a user/visitor I should be able to create a FAQ</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to delete a FAQ</t>
+  </si>
+  <si>
+    <t>As admin I should be able to edit a FAQ</t>
+  </si>
+  <si>
+    <t>As an user/visitor I should be able to read FAQs</t>
+  </si>
+  <si>
+    <t>As a user I should be able to add a file to the portal library</t>
+  </si>
+  <si>
+    <t>I should be able to read portal library files</t>
+  </si>
+  <si>
+    <t>AS an admin I should be able to delete a portal library file</t>
+  </si>
+  <si>
+    <t>As a user/visitor I should be able to view the rating of events</t>
+  </si>
+  <si>
+    <t>As a user I should be able to add a photo the gallery</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to delete a photo from the library</t>
+  </si>
+  <si>
+    <t>As I user/visitor I should be able to view the gallery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,18 +493,20 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="82.5546875" customWidth="1"/>
-    <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -443,119 +526,401 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3.1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.9</v>
+        <v>3.2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -589,7 +954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sprint_backlogs/Sprint 6 backlog.xlsx
+++ b/sprint_backlogs/Sprint 6 backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\BI\6th Semester\Software Engineering\Project\Ko7f\sprint_backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>User story</t>
   </si>
@@ -132,12 +132,18 @@
   </si>
   <si>
     <t>As I user/visitor I should be able to view the gallery</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to view all registeration form content</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to accept/reject a pending user in registration form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,23 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="82.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -526,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -546,7 +552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -566,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -586,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -606,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -626,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -646,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -666,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.8</v>
       </c>
@@ -686,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.9</v>
       </c>
@@ -706,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.1</v>
       </c>
@@ -726,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.2000000000000002</v>
       </c>
@@ -746,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.2999999999999998</v>
       </c>
@@ -766,7 +772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.4</v>
       </c>
@@ -786,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.5</v>
       </c>
@@ -806,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.6</v>
       </c>
@@ -826,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.7</v>
       </c>
@@ -846,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.8</v>
       </c>
@@ -866,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.9</v>
       </c>
@@ -886,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -906,13 +912,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.2</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
@@ -921,6 +930,46 @@
       </c>
       <c r="F21" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3.4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -954,7 +1003,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
